--- a/data/example6c.xlsx
+++ b/data/example6c.xlsx
@@ -28,22 +28,22 @@
     <t xml:space="preserve">col1</t>
   </si>
   <si>
+    <t xml:space="preserve">col3</t>
+  </si>
+  <si>
     <t xml:space="preserve">col2</t>
   </si>
   <si>
-    <t xml:space="preserve">col3</t>
+    <t xml:space="preserve">J</t>
   </si>
   <si>
     <t xml:space="preserve">g</t>
   </si>
   <si>
-    <t xml:space="preserve">J</t>
+    <t xml:space="preserve">H</t>
   </si>
   <si>
     <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
   </si>
 </sst>
 </file>
@@ -143,7 +143,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
